--- a/src/views/喵喵.xlsx
+++ b/src/views/喵喵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15094\Desktop\xiaowugui\vueDemo\src\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483BE7CE-34EF-4FA8-8A2A-1E118AF71089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF893EBF-7DCC-44F0-9788-70B935E8D0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:D2"/>
+  <dimension ref="D1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -362,6 +362,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/views/喵喵.xlsx
+++ b/src/views/喵喵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15094\Desktop\xiaowugui\vueDemo\src\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF893EBF-7DCC-44F0-9788-70B935E8D0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9815B66-2055-4B12-979A-1C611268F95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6228" windowWidth="23040" windowHeight="6276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>可好看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,25 +353,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:D3"/>
+  <dimension ref="D1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>3</v>
       </c>

--- a/src/views/喵喵.xlsx
+++ b/src/views/喵喵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15094\Desktop\xiaowugui\vueDemo\src\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9815B66-2055-4B12-979A-1C611268F95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213DF1C5-23AC-4829-856B-7556BAD10A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6228" windowWidth="23040" windowHeight="6276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,30 +353,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:E3"/>
+  <dimension ref="D1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D1">
-        <v>1</v>
+        <v>666666</v>
       </c>
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
